--- a/pic_sets/digital_dj_tips_guides/Digital DJ Tips - Top equipment over time.xlsx
+++ b/pic_sets/digital_dj_tips_guides/Digital DJ Tips - Top equipment over time.xlsx
@@ -881,13 +881,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:P108"/>
+  <dimension ref="A3:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,22 +926,6 @@
       <c r="H3" s="1">
         <f>H7</f>
         <v>2014</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:L3" si="0">I7</f>
-        <v>2015</v>
-      </c>
-      <c r="J3" s="1">
-        <f t="shared" si="0"/>
-        <v>2016</v>
-      </c>
-      <c r="K3" s="1">
-        <f t="shared" si="0"/>
-        <v>2017</v>
-      </c>
-      <c r="L3" s="1">
-        <f t="shared" si="0"/>
-        <v>2018</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1021,18 +1005,6 @@
       <c r="H7" s="1">
         <v>2014</v>
       </c>
-      <c r="I7" s="1">
-        <v>2015</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2016</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L7" s="1">
-        <v>2018</v>
-      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1193,44 +1165,28 @@
         <v>2020</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:F15" si="1">C7</f>
+        <f t="shared" ref="C15:F15" si="0">C7</f>
         <v>2019</v>
       </c>
       <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ref="G15:H15" si="1">G7</f>
+        <v>2015</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="1"/>
-        <v>2018</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>2017</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="1"/>
-        <v>2016</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" ref="G15:H15" si="2">G7</f>
-        <v>2015</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="2"/>
         <v>2014</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" ref="I15:L15" si="3">I7</f>
-        <v>2015</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="3"/>
-        <v>2016</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="3"/>
-        <v>2017</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="3"/>
-        <v>2018</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1265,7 +1221,7 @@
         <v>S4 MK2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>A9</f>
         <v>#2</v>
@@ -1281,11 +1237,11 @@
         <v>77</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" ref="E17:F20" si="4">D17</f>
+        <f t="shared" ref="E17:F20" si="2">D17</f>
         <v>S8</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>S8</v>
       </c>
       <c r="G17" t="str">
@@ -1297,7 +1253,7 @@
         <v>S2 MK2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>A10</f>
         <v>#3</v>
@@ -1312,11 +1268,11 @@
         <v>95</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>S4 MK2</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>S4 MK2</v>
       </c>
       <c r="G18" t="str">
@@ -1327,7 +1283,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f>A11</f>
         <v>#4</v>
@@ -1337,11 +1293,11 @@
         <v>96</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>D2</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>D2</v>
       </c>
       <c r="G19" t="s">
@@ -1352,7 +1308,7 @@
         <v>Reloop Jockey 3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>A12</f>
         <v>#5</v>
@@ -1362,11 +1318,11 @@
         <v>97</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>S2 MK2</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>S2 MK2</v>
       </c>
       <c r="G20" t="s">
@@ -1377,10 +1333,10 @@
         <v>Kontrol F1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
     </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1389,47 +1345,31 @@
         <v>2020</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" ref="C23:H23" si="5">C15</f>
+        <f t="shared" ref="C23:H23" si="3">C15</f>
         <v>2019</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2018</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2015</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2014</v>
       </c>
-      <c r="I23" s="1">
-        <f t="shared" ref="I23:L23" si="6">I15</f>
-        <v>2015</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="6"/>
-        <v>2016</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="6"/>
-        <v>2017</v>
-      </c>
-      <c r="L23" s="1">
-        <f t="shared" si="6"/>
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>A16</f>
         <v>#1</v>
@@ -1454,7 +1394,7 @@
         <v>DDJ-RX</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f>A17</f>
         <v>#2</v>
@@ -1470,7 +1410,7 @@
         <v>98</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" ref="E25:E28" si="7">D25</f>
+        <f t="shared" ref="E25:E28" si="4">D25</f>
         <v>DDJ-RR</v>
       </c>
       <c r="F25" t="str">
@@ -1478,7 +1418,7 @@
         <v>DDJ-RZ</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f>A18</f>
         <v>#3</v>
@@ -1493,11 +1433,11 @@
         <v>79</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>DDJ-RB</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f>A11</f>
         <v>#4</v>
@@ -1514,11 +1454,11 @@
         <v>DDJ-RZX</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>DDJ-RZX</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f>A12</f>
         <v>#5</v>
@@ -1533,11 +1473,11 @@
         <v>99</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>DDJ-RZ</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -1546,47 +1486,31 @@
         <v>2020</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" ref="C30:H30" si="8">C23</f>
+        <f t="shared" ref="C30:H30" si="5">C23</f>
         <v>2019</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2018</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2017</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2016</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2015</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2014</v>
       </c>
-      <c r="I30" s="1">
-        <f t="shared" ref="I30:L30" si="9">I23</f>
-        <v>2015</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" si="9"/>
-        <v>2016</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="9"/>
-        <v>2017</v>
-      </c>
-      <c r="L30" s="1">
-        <f t="shared" si="9"/>
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f>A24</f>
         <v>#1</v>
@@ -1613,9 +1537,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
-        <f t="shared" ref="A32:A35" si="10">A25</f>
+        <f t="shared" ref="A32:A35" si="6">A25</f>
         <v>#2</v>
       </c>
       <c r="B32" t="s">
@@ -1642,7 +1566,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>#3</v>
       </c>
       <c r="B33" t="s">
@@ -1668,7 +1592,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>#4</v>
       </c>
       <c r="B34" t="s">
@@ -1680,7 +1604,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>#5</v>
       </c>
       <c r="B35" t="s">
@@ -1715,28 +1639,12 @@
         <v>2016</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" ref="G37:H37" si="11">G88</f>
-        <v>2015</v>
+        <f t="shared" ref="G37:H37" si="7">G88</f>
+        <v>0</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="11"/>
-        <v>2014</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" ref="I37:L37" si="12">I88</f>
-        <v>2015</v>
-      </c>
-      <c r="J37" s="1">
-        <f t="shared" si="12"/>
-        <v>2016</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="12"/>
-        <v>2017</v>
-      </c>
-      <c r="L37" s="1">
-        <f t="shared" si="12"/>
-        <v>2018</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -1780,11 +1688,11 @@
         <v>58</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ref="C39:D40" si="13">B39</f>
+        <f t="shared" ref="C39:D40" si="8">B39</f>
         <v>DJ Player Pro</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>DJ Player Pro</v>
       </c>
       <c r="E39" t="str">
@@ -1792,11 +1700,11 @@
         <v>Traktor DJ</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" ref="F39:G41" si="14">E39</f>
+        <f t="shared" ref="F39:G41" si="9">E39</f>
         <v>Traktor DJ</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>Traktor DJ</v>
       </c>
       <c r="H39" t="str">
@@ -1813,22 +1721,22 @@
         <v>59</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>WEDJ</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>WEDJ</v>
       </c>
       <c r="E40" t="s">
         <v>114</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>MixVibes Cross DJ</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>MixVibes Cross DJ</v>
       </c>
       <c r="H40" t="str">
@@ -1848,7 +1756,7 @@
         <v>80</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" ref="D41:D42" si="15">C41</f>
+        <f t="shared" ref="D41:D42" si="10">C41</f>
         <v>Traktor DJ</v>
       </c>
       <c r="E41" t="str">
@@ -1859,7 +1767,7 @@
         <v>144</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>DJ Player</v>
       </c>
       <c r="H41" t="str">
@@ -1880,7 +1788,7 @@
         <v>MixFader DJ</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>MixFader DJ</v>
       </c>
     </row>
@@ -1893,44 +1801,28 @@
         <v>2020</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" ref="C44:H44" si="16">C37</f>
+        <f t="shared" ref="C44:H44" si="11">C37</f>
         <v>2019</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>2016</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="16"/>
-        <v>2015</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="16"/>
-        <v>2014</v>
-      </c>
-      <c r="I44" s="1">
-        <f t="shared" ref="I44:L44" si="17">I37</f>
-        <v>2015</v>
-      </c>
-      <c r="J44" s="1">
-        <f t="shared" si="17"/>
-        <v>2016</v>
-      </c>
-      <c r="K44" s="1">
-        <f t="shared" si="17"/>
-        <v>2017</v>
-      </c>
-      <c r="L44" s="1">
-        <f t="shared" si="17"/>
-        <v>2018</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -1967,7 +1859,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" ref="A46:A47" si="18">A39</f>
+        <f t="shared" ref="A46:A47" si="12">A39</f>
         <v>#2</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -1978,11 +1870,11 @@
         <v>Reloop Beatpad 2</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" ref="D46:E47" si="19">C46</f>
+        <f t="shared" ref="D46:E47" si="13">C46</f>
         <v>Reloop Beatpad 2</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>Reloop Beatpad 2</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -2003,7 +1895,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>#3</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -2013,11 +1905,11 @@
         <v>81</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>DDJ-WEGO4</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>DDJ-WEGO4</v>
       </c>
       <c r="F47" t="s">
@@ -2114,28 +2006,12 @@
         <v>2016</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" ref="G53:L53" si="20">G30</f>
+        <f t="shared" ref="G53:L53" si="14">G30</f>
         <v>2015</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>2014</v>
-      </c>
-      <c r="I53" s="1">
-        <f t="shared" si="20"/>
-        <v>2015</v>
-      </c>
-      <c r="J53" s="1">
-        <f t="shared" si="20"/>
-        <v>2016</v>
-      </c>
-      <c r="K53" s="1">
-        <f t="shared" si="20"/>
-        <v>2017</v>
-      </c>
-      <c r="L53" s="1">
-        <f t="shared" si="20"/>
-        <v>2018</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2193,11 +2069,11 @@
         <v>124</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" ref="G55:H56" si="21">F55</f>
+        <f t="shared" ref="G55:H56" si="15">F55</f>
         <v>Mixvibes Cross</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>Mixvibes Cross</v>
       </c>
     </row>
@@ -2211,7 +2087,7 @@
         <v>MIK Flow 8</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>MIK Flow 8</v>
       </c>
       <c r="H56" t="s">
@@ -2258,28 +2134,12 @@
         <v>2016</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" ref="G60:L60" si="22">G30</f>
+        <f t="shared" ref="G60:L60" si="16">G30</f>
         <v>2015</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>2014</v>
-      </c>
-      <c r="I60" s="1">
-        <f t="shared" si="22"/>
-        <v>2015</v>
-      </c>
-      <c r="J60" s="1">
-        <f t="shared" si="22"/>
-        <v>2016</v>
-      </c>
-      <c r="K60" s="1">
-        <f t="shared" si="22"/>
-        <v>2017</v>
-      </c>
-      <c r="L60" s="1">
-        <f t="shared" si="22"/>
-        <v>2018</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -2331,7 +2191,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="str">
         <f>A35</f>
         <v>#5</v>
@@ -2344,7 +2204,7 @@
         <v>MacBook Air</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>37</v>
       </c>
@@ -2353,47 +2213,31 @@
         <v>2020</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" ref="C67:L67" si="23">C60</f>
+        <f t="shared" ref="C67:L67" si="17">C60</f>
         <v>2019</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>2018</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>2015</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>2014</v>
       </c>
-      <c r="I67" s="1">
-        <f t="shared" si="23"/>
-        <v>2015</v>
-      </c>
-      <c r="J67" s="1">
-        <f t="shared" si="23"/>
-        <v>2016</v>
-      </c>
-      <c r="K67" s="1">
-        <f t="shared" si="23"/>
-        <v>2017</v>
-      </c>
-      <c r="L67" s="1">
-        <f t="shared" si="23"/>
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="str">
         <f>A61</f>
         <v>#1</v>
@@ -2425,9 +2269,9 @@
         <v>Mixdeck Quad</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
-        <f t="shared" ref="A69:A72" si="24">A62</f>
+        <f t="shared" ref="A69:A72" si="18">A62</f>
         <v>#2</v>
       </c>
       <c r="B69" t="s">
@@ -2448,17 +2292,17 @@
         <v>Mixdeck Quad</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" ref="G69" si="25">F70</f>
+        <f t="shared" ref="G69" si="19">F70</f>
         <v>XDJ-R1</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" ref="H69:H72" si="26">G69</f>
+        <f t="shared" ref="H69:H72" si="20">G69</f>
         <v>XDJ-R1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>#3</v>
       </c>
       <c r="B70" t="s">
@@ -2481,37 +2325,37 @@
         <v>147</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>Gemini CDMP-7000</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>#4</v>
       </c>
       <c r="G71" t="s">
         <v>148</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>Mixdeck express</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>#5</v>
       </c>
       <c r="G72" t="s">
         <v>149</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>XDJ-Aero</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>40</v>
       </c>
@@ -2520,47 +2364,23 @@
         <v>2020</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74:L74" si="27">C67</f>
+        <f t="shared" ref="C74:L74" si="21">C67</f>
         <v>2019</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>2018</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>2017</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>2016</v>
       </c>
-      <c r="G74" s="1">
-        <f t="shared" si="27"/>
-        <v>2015</v>
-      </c>
-      <c r="H74" s="1">
-        <f t="shared" si="27"/>
-        <v>2014</v>
-      </c>
-      <c r="I74" s="1">
-        <f t="shared" si="27"/>
-        <v>2015</v>
-      </c>
-      <c r="J74" s="1">
-        <f t="shared" si="27"/>
-        <v>2016</v>
-      </c>
-      <c r="K74" s="1">
-        <f t="shared" si="27"/>
-        <v>2017</v>
-      </c>
-      <c r="L74" s="1">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
         <f>A68</f>
         <v>#1</v>
@@ -2584,9 +2404,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
-        <f t="shared" ref="A76:A79" si="28">A69</f>
+        <f t="shared" ref="A76:A79" si="22">A69</f>
         <v>#2</v>
       </c>
       <c r="B76" t="s">
@@ -2609,9 +2429,9 @@
         <v>Numark NDX500</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>#3</v>
       </c>
       <c r="B77" t="s">
@@ -2633,9 +2453,9 @@
         <v>XDJ-700</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>#4</v>
       </c>
       <c r="B78" t="s">
@@ -2658,9 +2478,9 @@
         <v>Reloop RMP-4</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>#5</v>
       </c>
       <c r="B79" t="s">
@@ -2681,7 +2501,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>46</v>
       </c>
@@ -2690,47 +2510,23 @@
         <v>2020</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" ref="C81:L81" si="29">C74</f>
+        <f t="shared" ref="C81:L81" si="23">C74</f>
         <v>2019</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>2018</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>2017</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>2016</v>
       </c>
-      <c r="G81" s="1">
-        <f t="shared" si="29"/>
-        <v>2015</v>
-      </c>
-      <c r="H81" s="1">
-        <f t="shared" si="29"/>
-        <v>2014</v>
-      </c>
-      <c r="I81" s="1">
-        <f t="shared" si="29"/>
-        <v>2015</v>
-      </c>
-      <c r="J81" s="1">
-        <f t="shared" si="29"/>
-        <v>2016</v>
-      </c>
-      <c r="K81" s="1">
-        <f t="shared" si="29"/>
-        <v>2017</v>
-      </c>
-      <c r="L81" s="1">
-        <f t="shared" si="29"/>
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="str">
         <f>A75</f>
         <v>#1</v>
@@ -2754,16 +2550,16 @@
         <v>127</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
-        <f t="shared" ref="A83:A86" si="30">A76</f>
+        <f t="shared" ref="A83:A86" si="24">A76</f>
         <v>#2</v>
       </c>
       <c r="B83" t="s">
         <v>48</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" ref="C83:C84" si="31">B83</f>
+        <f t="shared" ref="C83:C84" si="25">B83</f>
         <v>X1800 PRIME</v>
       </c>
       <c r="D83" t="str">
@@ -2778,33 +2574,33 @@
         <v>Allen Heath XONE:43C</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>#3</v>
       </c>
       <c r="B84" t="s">
         <v>49</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>Rane 72</v>
       </c>
       <c r="D84" t="s">
         <v>103</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" ref="E84:F86" si="32">D84</f>
+        <f t="shared" ref="E84:F86" si="26">D84</f>
         <v>Reloop RMX-22I</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>Reloop RMX-22I</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>#4</v>
       </c>
       <c r="B85" t="s">
@@ -2818,17 +2614,17 @@
         <v>Pioneer S9</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>Pioneer S9</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>Pioneer S9</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>#5</v>
       </c>
       <c r="B86" t="s">
@@ -2841,15 +2637,15 @@
         <v>104</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>Kontrol Z2</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>Kontrol Z2</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>52</v>
       </c>
@@ -2858,47 +2654,23 @@
         <v>2020</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" ref="C88:L88" si="33">C81</f>
+        <f t="shared" ref="C88:L88" si="27">C81</f>
         <v>2019</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>2018</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>2017</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>2016</v>
       </c>
-      <c r="G88" s="1">
-        <f t="shared" si="33"/>
-        <v>2015</v>
-      </c>
-      <c r="H88" s="1">
-        <f t="shared" si="33"/>
-        <v>2014</v>
-      </c>
-      <c r="I88" s="1">
-        <f t="shared" si="33"/>
-        <v>2015</v>
-      </c>
-      <c r="J88" s="1">
-        <f t="shared" si="33"/>
-        <v>2016</v>
-      </c>
-      <c r="K88" s="1">
-        <f t="shared" si="33"/>
-        <v>2017</v>
-      </c>
-      <c r="L88" s="1">
-        <f t="shared" si="33"/>
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="str">
         <f>A82</f>
         <v>#1</v>
@@ -2922,20 +2694,20 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="str">
-        <f t="shared" ref="A90:A93" si="34">A83</f>
+        <f t="shared" ref="A90:A93" si="28">A83</f>
         <v>#2</v>
       </c>
       <c r="B90" t="s">
         <v>54</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" ref="C90:D92" si="35">B90</f>
+        <f t="shared" ref="C90:D92" si="29">B90</f>
         <v>Maschine MK3</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>Maschine MK3</v>
       </c>
       <c r="E90" t="s">
@@ -2945,9 +2717,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>#3</v>
       </c>
       <c r="B91" t="s">
@@ -2957,7 +2729,7 @@
         <v>86</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" ref="D91" si="36">C91</f>
+        <f t="shared" ref="D91" si="30">C91</f>
         <v>Audio Apollo Twin Mk2</v>
       </c>
       <c r="E91" t="str">
@@ -2969,16 +2741,16 @@
         <v>Push 2</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>#4</v>
       </c>
       <c r="B92" t="s">
         <v>85</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>Komplete 12</v>
       </c>
       <c r="D92" t="s">
@@ -2992,9 +2764,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>#5</v>
       </c>
       <c r="B93" t="s">
@@ -3013,76 +2785,81 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B96" s="1">
         <f>B44</f>
         <v>2020</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C96" s="1">
         <f>C44</f>
         <v>2019</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D96" s="1">
         <f>D44</f>
         <v>2018</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E96" s="1">
         <f>E44</f>
         <v>2017</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F96" s="1">
         <f>F44</f>
         <v>2016</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="str">
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="str">
         <f>A38</f>
         <v>#1</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B97" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="str">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="str">
         <f>A39</f>
         <v>#2</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B98" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="str">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="str">
         <f>A40</f>
         <v>#3</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B99" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="str">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="str">
         <f>A41</f>
         <v>#4</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B100" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="str">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="str">
         <f>A42</f>
         <v>#5</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B101" t="s">
         <v>71</v>
       </c>
     </row>
+    <row r="103" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pic_sets/digital_dj_tips_guides/Digital DJ Tips - Top equipment over time.xlsx
+++ b/pic_sets/digital_dj_tips_guides/Digital DJ Tips - Top equipment over time.xlsx
@@ -900,31 +900,31 @@
         <v>13</v>
       </c>
       <c r="B3" s="1">
-        <f>B7</f>
+        <f t="shared" ref="B3:H3" si="0">B7</f>
         <v>2020</v>
       </c>
       <c r="C3" s="1">
-        <f>C7</f>
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="D3" s="1">
-        <f>D7</f>
+        <f t="shared" si="0"/>
         <v>2018</v>
       </c>
       <c r="E3" s="1">
-        <f>E7</f>
+        <f t="shared" si="0"/>
         <v>2017</v>
       </c>
       <c r="F3" s="1">
-        <f>F7</f>
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
       <c r="G3" s="1">
-        <f>G7</f>
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
       <c r="H3" s="1">
-        <f>H7</f>
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
     </row>
@@ -1165,27 +1165,27 @@
         <v>2020</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:F15" si="0">C7</f>
+        <f t="shared" ref="C15:F15" si="1">C7</f>
         <v>2019</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2018</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ref="G15:H15" si="1">G7</f>
+        <f t="shared" ref="G15:H15" si="2">G7</f>
         <v>2015</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
     </row>
@@ -1237,11 +1237,11 @@
         <v>77</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" ref="E17:F20" si="2">D17</f>
+        <f t="shared" ref="E17:F20" si="3">D17</f>
         <v>S8</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S8</v>
       </c>
       <c r="G17" t="str">
@@ -1268,11 +1268,11 @@
         <v>95</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S4 MK2</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S4 MK2</v>
       </c>
       <c r="G18" t="str">
@@ -1293,11 +1293,11 @@
         <v>96</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D2</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D2</v>
       </c>
       <c r="G19" t="s">
@@ -1318,11 +1318,11 @@
         <v>97</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S2 MK2</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S2 MK2</v>
       </c>
       <c r="G20" t="s">
@@ -1345,27 +1345,27 @@
         <v>2020</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" ref="C23:H23" si="3">C15</f>
+        <f t="shared" ref="C23:H23" si="4">C15</f>
         <v>2019</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2015</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2014</v>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
         <v>98</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" ref="E25:E28" si="4">D25</f>
+        <f t="shared" ref="E25:E28" si="5">D25</f>
         <v>DDJ-RR</v>
       </c>
       <c r="F25" t="str">
@@ -1433,7 +1433,7 @@
         <v>79</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>DDJ-RB</v>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
         <v>DDJ-RZX</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>DDJ-RZX</v>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
         <v>99</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>DDJ-RZ</v>
       </c>
     </row>
@@ -1486,27 +1486,27 @@
         <v>2020</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" ref="C30:H30" si="5">C23</f>
+        <f t="shared" ref="C30:H30" si="6">C23</f>
         <v>2019</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2014</v>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
-        <f t="shared" ref="A32:A35" si="6">A25</f>
+        <f t="shared" ref="A32:A35" si="7">A25</f>
         <v>#2</v>
       </c>
       <c r="B32" t="s">
@@ -1566,7 +1566,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#3</v>
       </c>
       <c r="B33" t="s">
@@ -1592,7 +1592,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#4</v>
       </c>
       <c r="B34" t="s">
@@ -1604,7 +1604,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#5</v>
       </c>
       <c r="B35" t="s">
@@ -1639,11 +1639,11 @@
         <v>2016</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" ref="G37:H37" si="7">G88</f>
+        <f t="shared" ref="G37:H37" si="8">G88</f>
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1688,11 +1688,11 @@
         <v>58</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ref="C39:D40" si="8">B39</f>
+        <f t="shared" ref="C39:D40" si="9">B39</f>
         <v>DJ Player Pro</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>DJ Player Pro</v>
       </c>
       <c r="E39" t="str">
@@ -1700,11 +1700,11 @@
         <v>Traktor DJ</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" ref="F39:G41" si="9">E39</f>
+        <f t="shared" ref="F39:G41" si="10">E39</f>
         <v>Traktor DJ</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Traktor DJ</v>
       </c>
       <c r="H39" t="str">
@@ -1721,22 +1721,22 @@
         <v>59</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>WEDJ</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>WEDJ</v>
       </c>
       <c r="E40" t="s">
         <v>114</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>MixVibes Cross DJ</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>MixVibes Cross DJ</v>
       </c>
       <c r="H40" t="str">
@@ -1756,7 +1756,7 @@
         <v>80</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" ref="D41:D42" si="10">C41</f>
+        <f t="shared" ref="D41:D42" si="11">C41</f>
         <v>Traktor DJ</v>
       </c>
       <c r="E41" t="str">
@@ -1767,7 +1767,7 @@
         <v>144</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>DJ Player</v>
       </c>
       <c r="H41" t="str">
@@ -1788,7 +1788,7 @@
         <v>MixFader DJ</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>MixFader DJ</v>
       </c>
     </row>
@@ -1801,27 +1801,27 @@
         <v>2020</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" ref="C44:H44" si="11">C37</f>
+        <f t="shared" ref="C44:H44" si="12">C37</f>
         <v>2019</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2017</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" ref="A46:A47" si="12">A39</f>
+        <f t="shared" ref="A46:A47" si="13">A39</f>
         <v>#2</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -1870,11 +1870,11 @@
         <v>Reloop Beatpad 2</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" ref="D46:E47" si="13">C46</f>
+        <f t="shared" ref="D46:E47" si="14">C46</f>
         <v>Reloop Beatpad 2</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Reloop Beatpad 2</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -1895,7 +1895,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#3</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -1905,11 +1905,11 @@
         <v>81</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>DDJ-WEGO4</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>DDJ-WEGO4</v>
       </c>
       <c r="F47" t="s">
@@ -2006,11 +2006,11 @@
         <v>2016</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" ref="G53:L53" si="14">G30</f>
+        <f t="shared" ref="G53:H53" si="15">G30</f>
         <v>2015</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2014</v>
       </c>
     </row>
@@ -2069,11 +2069,11 @@
         <v>124</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" ref="G55:H56" si="15">F55</f>
+        <f t="shared" ref="G55:H56" si="16">F55</f>
         <v>Mixvibes Cross</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Mixvibes Cross</v>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
         <v>MIK Flow 8</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>MIK Flow 8</v>
       </c>
       <c r="H56" t="s">
@@ -2134,11 +2134,11 @@
         <v>2016</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" ref="G60:L60" si="16">G30</f>
+        <f t="shared" ref="G60:H60" si="17">G30</f>
         <v>2015</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2014</v>
       </c>
     </row>
@@ -2213,27 +2213,27 @@
         <v>2020</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" ref="C67:L67" si="17">C60</f>
+        <f t="shared" ref="C67:H67" si="18">C60</f>
         <v>2019</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2017</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2015</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2014</v>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
-        <f t="shared" ref="A69:A72" si="18">A62</f>
+        <f t="shared" ref="A69:A72" si="19">A62</f>
         <v>#2</v>
       </c>
       <c r="B69" t="s">
@@ -2292,17 +2292,17 @@
         <v>Mixdeck Quad</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" ref="G69" si="19">F70</f>
+        <f t="shared" ref="G69" si="20">F70</f>
         <v>XDJ-R1</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" ref="H69:H72" si="20">G69</f>
+        <f t="shared" ref="H69:H72" si="21">G69</f>
         <v>XDJ-R1</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#3</v>
       </c>
       <c r="B70" t="s">
@@ -2325,33 +2325,33 @@
         <v>147</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Gemini CDMP-7000</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#4</v>
       </c>
       <c r="G71" t="s">
         <v>148</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Mixdeck express</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#5</v>
       </c>
       <c r="G72" t="s">
         <v>149</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>XDJ-Aero</v>
       </c>
     </row>
@@ -2364,19 +2364,19 @@
         <v>2020</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74:L74" si="21">C67</f>
+        <f t="shared" ref="C74:F74" si="22">C67</f>
         <v>2019</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2018</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2017</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2016</v>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
-        <f t="shared" ref="A76:A79" si="22">A69</f>
+        <f t="shared" ref="A76:A79" si="23">A69</f>
         <v>#2</v>
       </c>
       <c r="B76" t="s">
@@ -2431,7 +2431,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#3</v>
       </c>
       <c r="B77" t="s">
@@ -2455,7 +2455,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#4</v>
       </c>
       <c r="B78" t="s">
@@ -2480,7 +2480,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#5</v>
       </c>
       <c r="B79" t="s">
@@ -2510,19 +2510,19 @@
         <v>2020</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" ref="C81:L81" si="23">C74</f>
+        <f t="shared" ref="C81:F81" si="24">C74</f>
         <v>2019</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2018</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2017</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2016</v>
       </c>
     </row>
@@ -2552,14 +2552,14 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
-        <f t="shared" ref="A83:A86" si="24">A76</f>
+        <f t="shared" ref="A83:A86" si="25">A76</f>
         <v>#2</v>
       </c>
       <c r="B83" t="s">
         <v>48</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" ref="C83:C84" si="25">B83</f>
+        <f t="shared" ref="C83:C84" si="26">B83</f>
         <v>X1800 PRIME</v>
       </c>
       <c r="D83" t="str">
@@ -2576,31 +2576,31 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#3</v>
       </c>
       <c r="B84" t="s">
         <v>49</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Rane 72</v>
       </c>
       <c r="D84" t="s">
         <v>103</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" ref="E84:F86" si="26">D84</f>
+        <f t="shared" ref="E84:F86" si="27">D84</f>
         <v>Reloop RMX-22I</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Reloop RMX-22I</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#4</v>
       </c>
       <c r="B85" t="s">
@@ -2614,17 +2614,17 @@
         <v>Pioneer S9</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Pioneer S9</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Pioneer S9</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#5</v>
       </c>
       <c r="B86" t="s">
@@ -2637,11 +2637,11 @@
         <v>104</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Kontrol Z2</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Kontrol Z2</v>
       </c>
     </row>
@@ -2654,19 +2654,19 @@
         <v>2020</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" ref="C88:L88" si="27">C81</f>
+        <f t="shared" ref="C88:F88" si="28">C81</f>
         <v>2019</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2018</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2017</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2016</v>
       </c>
     </row>
@@ -2696,18 +2696,18 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="str">
-        <f t="shared" ref="A90:A93" si="28">A83</f>
+        <f t="shared" ref="A90:A93" si="29">A83</f>
         <v>#2</v>
       </c>
       <c r="B90" t="s">
         <v>54</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" ref="C90:D92" si="29">B90</f>
+        <f t="shared" ref="C90:D92" si="30">B90</f>
         <v>Maschine MK3</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Maschine MK3</v>
       </c>
       <c r="E90" t="s">
@@ -2719,7 +2719,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#3</v>
       </c>
       <c r="B91" t="s">
@@ -2729,7 +2729,7 @@
         <v>86</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" ref="D91" si="30">C91</f>
+        <f t="shared" ref="D91" si="31">C91</f>
         <v>Audio Apollo Twin Mk2</v>
       </c>
       <c r="E91" t="str">
@@ -2743,14 +2743,14 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#4</v>
       </c>
       <c r="B92" t="s">
         <v>85</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Komplete 12</v>
       </c>
       <c r="D92" t="s">
@@ -2766,7 +2766,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#5</v>
       </c>
       <c r="B93" t="s">
@@ -2861,8 +2861,8 @@
     </row>
     <row r="103" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/pic_sets/digital_dj_tips_guides/Digital DJ Tips - Top equipment over time.xlsx
+++ b/pic_sets/digital_dj_tips_guides/Digital DJ Tips - Top equipment over time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="179">
   <si>
     <t xml:space="preserve">Serato Controllers </t>
   </si>
@@ -132,9 +132,6 @@
     <t>Stand-Alone-Systems</t>
   </si>
   <si>
-    <t>DJ-XZ</t>
-  </si>
-  <si>
     <t>XDJ-RX2</t>
   </si>
   <si>
@@ -508,6 +505,54 @@
   </si>
   <si>
     <t>DDJ-WEGO2</t>
+  </si>
+  <si>
+    <t>Denon Prime Go</t>
+  </si>
+  <si>
+    <t>Numrk Platinum FX</t>
+  </si>
+  <si>
+    <t>Hercules Impulse 500</t>
+  </si>
+  <si>
+    <t>Numark DJ2GO2 Touch</t>
+  </si>
+  <si>
+    <t>DDJ-FLX6</t>
+  </si>
+  <si>
+    <t>MIXXX 2</t>
+  </si>
+  <si>
+    <t>DJAY PRO AI</t>
+  </si>
+  <si>
+    <t>XMG DJ 15</t>
+  </si>
+  <si>
+    <t>XDJ-XZ</t>
+  </si>
+  <si>
+    <t>SC6000 Prime</t>
+  </si>
+  <si>
+    <t>CDJ-3000</t>
+  </si>
+  <si>
+    <t>SC6000M Prime</t>
+  </si>
+  <si>
+    <t>X1850 Prime</t>
+  </si>
+  <si>
+    <t>Rane 72 Mk2</t>
+  </si>
+  <si>
+    <t>DJM-S-11</t>
+  </si>
+  <si>
+    <t>DJAY Pro AI</t>
   </si>
 </sst>
 </file>
@@ -881,79 +926,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:P103"/>
+  <dimension ref="A3:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="21.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:H3" si="0">B7</f>
+        <v>2021</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:I3" si="0">C7</f>
         <v>2020</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="9" t="str">
-        <f>D8</f>
+      <c r="E4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="9" t="str">
+        <f>E8</f>
         <v>Denon MCX8000</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="5" t="str">
-        <f>H9</f>
+        <v>114</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="5" t="str">
+        <f>I9</f>
         <v>DDJ-SX1</v>
       </c>
-      <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -961,10 +1011,11 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -979,863 +1030,946 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>2020</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>2019</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>2018</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>2017</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>2016</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>2015</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="str">
+        <f>C8</f>
+        <v>DDJ-1000SRT</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" t="str">
-        <f>C12</f>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="str">
+        <f>D12</f>
         <v>Denon MCX8000</v>
       </c>
-      <c r="E8" t="str">
-        <f>D8</f>
+      <c r="F8" t="str">
+        <f>E8</f>
         <v>Denon MCX8000</v>
       </c>
-      <c r="F8" t="s">
-        <v>116</v>
-      </c>
       <c r="G8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" t="str">
-        <f>G10</f>
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" t="str">
+        <f>H10</f>
         <v>Numark SX7 mk2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="str">
+        <f>C9</f>
+        <v>Roland DJ-707M</v>
+      </c>
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
       <c r="D9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" t="str">
-        <f>D9</f>
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" t="str">
+        <f>E9</f>
         <v>Roland DJ-808</v>
       </c>
-      <c r="F9" t="s">
-        <v>118</v>
-      </c>
       <c r="G9" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="H9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="I9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
       <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="str">
-        <f>D45</f>
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="str">
+        <f>E45</f>
         <v>Reloop Mixon 4</v>
       </c>
-      <c r="F10" t="s">
-        <v>119</v>
-      </c>
       <c r="G10" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="I10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
-        <v>75</v>
-      </c>
       <c r="D11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" t="str">
-        <f>D11</f>
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="str">
+        <f>E11</f>
         <v>Numark NV2</v>
       </c>
-      <c r="F11" t="str">
-        <f>E12</f>
+      <c r="G11" t="str">
+        <f>F12</f>
         <v>Hercules JogVision</v>
       </c>
-      <c r="G11" t="str">
-        <f>F10</f>
+      <c r="H11" t="str">
+        <f>G10</f>
         <v>Reloop Terminal mix 8</v>
       </c>
-      <c r="H11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" t="str">
-        <f>B35</f>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="str">
+        <f>C35</f>
         <v>Numark DJ2GO2</v>
       </c>
-      <c r="E12" t="s">
-        <v>108</v>
-      </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
         <v>139</v>
       </c>
       <c r="H12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1">
-        <f>B7</f>
+      <c r="C15" s="1">
+        <f>C7</f>
         <v>2020</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" ref="C15:F15" si="1">C7</f>
+      <c r="D15" s="1">
+        <f t="shared" ref="D15:G15" si="1">D7</f>
         <v>2019</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <f t="shared" si="1"/>
         <v>2017</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
-      <c r="G15" s="1">
-        <f t="shared" ref="G15:H15" si="2">G7</f>
+      <c r="H15" s="1">
+        <f t="shared" ref="H15:I15" si="2">H7</f>
         <v>2015</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>A8</f>
         <v>#1</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="str">
+        <f>C16</f>
+        <v>S4 MK3</v>
+      </c>
+      <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="str">
-        <f>B16</f>
+      <c r="D16" t="str">
+        <f>C16</f>
         <v>S4 MK3</v>
       </c>
-      <c r="D16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" t="str">
-        <f>D16</f>
-        <v>S5</v>
+      <c r="E16" t="s">
+        <v>93</v>
       </c>
       <c r="F16" t="str">
         <f>E16</f>
         <v>S5</v>
       </c>
       <c r="G16" t="str">
-        <f>F17</f>
-        <v>S8</v>
+        <f>F16</f>
+        <v>S5</v>
       </c>
       <c r="H16" t="str">
         <f>G17</f>
+        <v>S8</v>
+      </c>
+      <c r="I16" t="str">
+        <f>H17</f>
         <v>S4 MK2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>A9</f>
         <v>#2</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="str">
+        <f t="shared" ref="B17:B18" si="3">C17</f>
+        <v>S2 MK3</v>
+      </c>
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="str">
-        <f>B17</f>
+      <c r="D17" t="str">
+        <f>C17</f>
         <v>S2 MK3</v>
       </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" ref="E17:F20" si="3">D17</f>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" ref="F17:G20" si="4">E17</f>
         <v>S8</v>
       </c>
-      <c r="F17" t="str">
-        <f t="shared" si="3"/>
+      <c r="G17" t="str">
+        <f t="shared" si="4"/>
         <v>S8</v>
-      </c>
-      <c r="G17" t="str">
-        <f>F18</f>
-        <v>S4 MK2</v>
       </c>
       <c r="H17" t="str">
         <f>G18</f>
+        <v>S4 MK2</v>
+      </c>
+      <c r="I17" t="str">
+        <f>H18</f>
         <v>S2 MK2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>A10</f>
         <v>#3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>S3</v>
+      </c>
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="3"/>
+      <c r="D18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="4"/>
         <v>S4 MK2</v>
       </c>
-      <c r="F18" t="str">
-        <f t="shared" si="3"/>
+      <c r="G18" t="str">
+        <f t="shared" si="4"/>
         <v>S4 MK2</v>
       </c>
-      <c r="G18" t="str">
-        <f>F20</f>
+      <c r="H18" t="str">
+        <f>G20</f>
         <v>S2 MK2</v>
       </c>
-      <c r="H18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f>A11</f>
         <v>#4</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="4"/>
         <v>D2</v>
       </c>
-      <c r="F19" t="str">
-        <f t="shared" si="3"/>
+      <c r="G19" t="str">
+        <f t="shared" si="4"/>
         <v>D2</v>
       </c>
-      <c r="G19" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" t="str">
-        <f>G19</f>
+      <c r="H19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" t="str">
+        <f>H19</f>
         <v>Reloop Jockey 3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>A12</f>
         <v>#5</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="4"/>
         <v>S2 MK2</v>
       </c>
-      <c r="F20" t="str">
-        <f t="shared" si="3"/>
+      <c r="G20" t="str">
+        <f t="shared" si="4"/>
         <v>S2 MK2</v>
       </c>
-      <c r="G20" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" t="str">
-        <f>G20</f>
+      <c r="H20" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" t="str">
+        <f>H20</f>
         <v>Kontrol F1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="1">
-        <f>B15</f>
+      <c r="C23" s="1">
+        <f>C15</f>
         <v>2020</v>
       </c>
-      <c r="C23" s="1">
-        <f t="shared" ref="C23:H23" si="4">C15</f>
+      <c r="D23" s="1">
+        <f t="shared" ref="D23:I23" si="5">D15</f>
         <v>2019</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="4"/>
+      <c r="E23" s="1">
+        <f t="shared" si="5"/>
         <v>2018</v>
       </c>
-      <c r="E23" s="1">
-        <f t="shared" si="4"/>
+      <c r="F23" s="1">
+        <f t="shared" si="5"/>
         <v>2017</v>
       </c>
-      <c r="F23" s="1">
-        <f t="shared" si="4"/>
+      <c r="G23" s="1">
+        <f t="shared" si="5"/>
         <v>2016</v>
       </c>
-      <c r="G23" s="1">
-        <f t="shared" si="4"/>
+      <c r="H23" s="1">
+        <f t="shared" si="5"/>
         <v>2015</v>
       </c>
-      <c r="H23" s="1">
-        <f t="shared" si="4"/>
+      <c r="I23" s="1">
+        <f t="shared" si="5"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>A16</f>
         <v>#1</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="str">
+        <f>C24</f>
+        <v>DDJ-1000</v>
+      </c>
+      <c r="C24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" t="str">
-        <f>B24</f>
+      <c r="D24" t="str">
+        <f>C24</f>
         <v>DDJ-1000</v>
       </c>
-      <c r="D24" t="str">
-        <f>C26</f>
-        <v>DDJ-RX</v>
-      </c>
       <c r="E24" t="str">
-        <f>D24</f>
+        <f>D26</f>
         <v>DDJ-RX</v>
       </c>
       <c r="F24" t="str">
         <f>E24</f>
         <v>DDJ-RX</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" t="str">
+        <f>F24</f>
+        <v>DDJ-RX</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f>A17</f>
         <v>#2</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="str">
+        <f t="shared" ref="B25:B26" si="6">C25</f>
+        <v>DDJ-400</v>
+      </c>
+      <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="C25" t="str">
-        <f>B25</f>
+      <c r="D25" t="str">
+        <f>C25</f>
         <v>DDJ-400</v>
       </c>
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" ref="E25:E28" si="5">D25</f>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" ref="F25:F28" si="7">E25</f>
         <v>DDJ-RR</v>
       </c>
-      <c r="F25" t="str">
-        <f>E28</f>
+      <c r="G25" t="str">
+        <f>F28</f>
         <v>DDJ-RZ</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f>A18</f>
         <v>#3</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>DDJ-800</v>
+      </c>
+      <c r="C26" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
         <v>78</v>
       </c>
-      <c r="D26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="5"/>
+      <c r="F26" t="str">
+        <f t="shared" si="7"/>
         <v>DDJ-RB</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f>A11</f>
         <v>#4</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" t="s">
         <v>21</v>
-      </c>
-      <c r="C27" t="str">
-        <f>B27</f>
-        <v>DDJ-RZX</v>
       </c>
       <c r="D27" t="str">
         <f>C27</f>
         <v>DDJ-RZX</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="5"/>
+        <f>D27</f>
         <v>DDJ-RZX</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" t="str">
+        <f t="shared" si="7"/>
+        <v>DDJ-RZX</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f>A12</f>
         <v>#5</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="5"/>
+      <c r="D28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="7"/>
         <v>DDJ-RZ</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="1">
-        <f>B23</f>
+      <c r="C30" s="1">
+        <f>C23</f>
         <v>2020</v>
       </c>
-      <c r="C30" s="1">
-        <f t="shared" ref="C30:H30" si="6">C23</f>
+      <c r="D30" s="1">
+        <f t="shared" ref="D30:I30" si="8">D23</f>
         <v>2019</v>
       </c>
-      <c r="D30" s="1">
-        <f t="shared" si="6"/>
+      <c r="E30" s="1">
+        <f t="shared" si="8"/>
         <v>2018</v>
       </c>
-      <c r="E30" s="1">
-        <f t="shared" si="6"/>
+      <c r="F30" s="1">
+        <f t="shared" si="8"/>
         <v>2017</v>
       </c>
-      <c r="F30" s="1">
-        <f t="shared" si="6"/>
+      <c r="G30" s="1">
+        <f t="shared" si="8"/>
         <v>2016</v>
       </c>
-      <c r="G30" s="1">
-        <f t="shared" si="6"/>
+      <c r="H30" s="1">
+        <f t="shared" si="8"/>
         <v>2015</v>
       </c>
-      <c r="H30" s="1">
-        <f t="shared" si="6"/>
+      <c r="I30" s="1">
+        <f t="shared" si="8"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f>A24</f>
         <v>#1</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="str">
+        <f>C31</f>
+        <v>Reloop Touch</v>
+      </c>
+      <c r="C31" t="s">
         <v>24</v>
       </c>
-      <c r="C31" t="str">
-        <f>B31</f>
+      <c r="D31" t="str">
+        <f>C31</f>
         <v>Reloop Touch</v>
       </c>
-      <c r="D31" t="str">
-        <f>B31</f>
+      <c r="E31" t="str">
+        <f>C31</f>
         <v>Reloop Touch</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" t="str">
+        <f>G31</f>
+        <v>DDJ-WEGO3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="str">
+        <f t="shared" ref="A32:A35" si="9">A25</f>
+        <v>#2</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f t="shared" ref="B32:B33" si="10">C32</f>
+        <v>Numark NS6II</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="str">
+        <f>C33</f>
+        <v>DDJ-1000</v>
+      </c>
+      <c r="E32" t="str">
+        <f>C32</f>
+        <v>Numark NS6II</v>
+      </c>
+      <c r="G32" t="s">
         <v>120</v>
       </c>
-      <c r="G31" t="str">
-        <f>F31</f>
-        <v>DDJ-WEGO3</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="H32" t="str">
+        <f>G32</f>
+        <v>Hercules DJ Console RMX2</v>
+      </c>
+      <c r="I32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="str">
-        <f t="shared" ref="A32:A35" si="7">A25</f>
-        <v>#2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" t="str">
-        <f>B33</f>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#3</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>DDJ-1000</v>
       </c>
-      <c r="D32" t="str">
-        <f>B32</f>
-        <v>Numark NS6II</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="str">
+        <f>C34</f>
+        <v>Hercules Inpulse 300</v>
+      </c>
+      <c r="E33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G32" t="str">
-        <f>F32</f>
-        <v>Hercules DJ Console RMX2</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="H33" t="str">
+        <f>G33</f>
+        <v>DDJ-SZ</v>
+      </c>
+      <c r="I33" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>#3</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="str">
-        <f>B34</f>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#4</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#5</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f>C34</f>
         <v>Hercules Inpulse 300</v>
       </c>
-      <c r="D33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" t="str">
-        <f>F33</f>
-        <v>DDJ-SZ</v>
-      </c>
-      <c r="H33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>#4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>#5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="1">
-        <f>B88</f>
-        <v>2020</v>
+        <v>61</v>
       </c>
       <c r="C37" s="1">
         <f>C88</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D37" s="1">
         <f>D88</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E37" s="1">
         <f>E88</f>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F37" s="1">
         <f>F88</f>
+        <v>2017</v>
+      </c>
+      <c r="G37" s="1">
+        <f>G88</f>
         <v>2016</v>
       </c>
-      <c r="G37" s="1">
-        <f t="shared" ref="G37:H37" si="8">G88</f>
+      <c r="H37" s="1">
+        <f t="shared" ref="H37:I37" si="11">H88</f>
         <v>0</v>
       </c>
-      <c r="H37" s="1">
-        <f t="shared" si="8"/>
+      <c r="I37" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
         <f>A89</f>
         <v>#1</v>
       </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" t="str">
-        <f>B38</f>
-        <v>DJAY</v>
+      <c r="B38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
       </c>
       <c r="D38" t="str">
         <f>C38</f>
         <v>DJAY</v>
       </c>
-      <c r="E38" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38" t="str">
-        <f>E38</f>
-        <v>DJAY 2</v>
+      <c r="E38" t="str">
+        <f>D38</f>
+        <v>DJAY</v>
+      </c>
+      <c r="F38" t="s">
+        <v>112</v>
       </c>
       <c r="G38" t="str">
         <f>F38</f>
         <v>DJAY 2</v>
       </c>
       <c r="H38" t="str">
-        <f>G39</f>
+        <f>G38</f>
+        <v>DJAY 2</v>
+      </c>
+      <c r="I38" t="str">
+        <f>H39</f>
         <v>Traktor DJ</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f>A90</f>
         <v>#2</v>
       </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" ref="C39:D40" si="9">B39</f>
+      <c r="B39" s="2" t="str">
+        <f>C39</f>
         <v>DJ Player Pro</v>
       </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
       <c r="D39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="D39:E40" si="12">C39</f>
         <v>DJ Player Pro</v>
       </c>
       <c r="E39" t="str">
-        <f>D41</f>
+        <f t="shared" si="12"/>
+        <v>DJ Player Pro</v>
+      </c>
+      <c r="F39" t="str">
+        <f>E41</f>
         <v>Traktor DJ</v>
       </c>
-      <c r="F39" t="str">
-        <f t="shared" ref="F39:G41" si="10">E39</f>
+      <c r="G39" t="str">
+        <f t="shared" ref="G39:H41" si="13">F39</f>
         <v>Traktor DJ</v>
       </c>
-      <c r="G39" t="str">
-        <f t="shared" si="10"/>
+      <c r="H39" t="str">
+        <f t="shared" si="13"/>
         <v>Traktor DJ</v>
       </c>
-      <c r="H39" t="str">
-        <f>G38</f>
+      <c r="I39" t="str">
+        <f>H38</f>
         <v>DJAY 2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
         <f>A91</f>
         <v>#3</v>
       </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" si="9"/>
+      <c r="B40" s="2" t="str">
+        <f>C40</f>
         <v>WEDJ</v>
       </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
       <c r="D40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>WEDJ</v>
       </c>
-      <c r="E40" t="s">
-        <v>114</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="10"/>
+      <c r="E40" t="str">
+        <f t="shared" si="12"/>
+        <v>WEDJ</v>
+      </c>
+      <c r="F40" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="13"/>
         <v>MixVibes Cross DJ</v>
       </c>
-      <c r="G40" t="str">
-        <f t="shared" si="10"/>
+      <c r="H40" t="str">
+        <f t="shared" si="13"/>
         <v>MixVibes Cross DJ</v>
       </c>
-      <c r="H40" t="str">
-        <f>G40</f>
+      <c r="I40" t="str">
+        <f>H40</f>
         <v>MixVibes Cross DJ</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
         <f>A92</f>
         <v>#4</v>
       </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" ref="D41:D42" si="11">C41</f>
+      <c r="B41" s="2" t="str">
+        <f>C41</f>
+        <v>Traktor DJ 2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" ref="E41:E42" si="14">D41</f>
         <v>Traktor DJ</v>
       </c>
-      <c r="E41" t="str">
-        <f>D39</f>
+      <c r="F41" t="str">
+        <f>E39</f>
         <v>DJ Player Pro</v>
       </c>
-      <c r="F41" t="s">
-        <v>144</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="10"/>
+      <c r="G41" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="13"/>
         <v>DJ Player</v>
       </c>
-      <c r="H41" t="str">
-        <f>G41</f>
+      <c r="I41" t="str">
+        <f>H41</f>
         <v>DJ Player</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
         <f>A93</f>
         <v>#5</v>
       </c>
-      <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" t="str">
-        <f>B42</f>
+      <c r="B42" s="2" t="str">
+        <f>C42</f>
         <v>MixFader DJ</v>
       </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
       <c r="D42" t="str">
-        <f t="shared" si="11"/>
+        <f>C42</f>
         <v>MixFader DJ</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E42" t="str">
+        <f t="shared" si="14"/>
+        <v>MixFader DJ</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="1">
-        <f>B37</f>
+        <v>62</v>
+      </c>
+      <c r="C44" s="1">
+        <f>C37</f>
         <v>2020</v>
       </c>
-      <c r="C44" s="1">
-        <f t="shared" ref="C44:H44" si="12">C37</f>
+      <c r="D44" s="1">
+        <f t="shared" ref="D44:I44" si="15">D37</f>
         <v>2019</v>
       </c>
-      <c r="D44" s="1">
-        <f t="shared" si="12"/>
+      <c r="E44" s="1">
+        <f t="shared" si="15"/>
         <v>2018</v>
       </c>
-      <c r="E44" s="1">
-        <f t="shared" si="12"/>
+      <c r="F44" s="1">
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
-      <c r="F44" s="1">
-        <f t="shared" si="12"/>
+      <c r="G44" s="1">
+        <f t="shared" si="15"/>
         <v>2016</v>
       </c>
-      <c r="G44" s="1">
-        <f t="shared" si="12"/>
+      <c r="H44" s="1">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H44" s="1">
-        <f t="shared" si="12"/>
+      <c r="I44" s="1">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
         <f>A38</f>
         <v>#1</v>
       </c>
-      <c r="B45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" t="str">
-        <f>B45</f>
+      <c r="B45" s="2" t="str">
+        <f>C45</f>
         <v>Reloop Mixon 4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
       </c>
       <c r="D45" t="str">
         <f>C45</f>
@@ -1846,129 +1980,142 @@
         <v>Reloop Mixon 4</v>
       </c>
       <c r="F45" t="str">
-        <f>E46</f>
+        <f>E45</f>
+        <v>Reloop Mixon 4</v>
+      </c>
+      <c r="G45" t="str">
+        <f>F46</f>
         <v>Reloop Beatpad 2</v>
       </c>
-      <c r="G45" t="s">
-        <v>145</v>
-      </c>
-      <c r="H45" t="str">
-        <f>G45</f>
+      <c r="H45" t="s">
+        <v>144</v>
+      </c>
+      <c r="I45" t="str">
+        <f>H45</f>
         <v>Reloop BeatPad 1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" ref="A46:A47" si="13">A39</f>
+        <f t="shared" ref="A46:A47" si="16">A39</f>
         <v>#2</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="5" t="str">
-        <f>B46</f>
+      <c r="B46" s="4" t="str">
+        <f>C47</f>
+        <v>S2 MK3</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="5" t="str">
+        <f>C46</f>
         <v>Reloop Beatpad 2</v>
       </c>
-      <c r="D46" t="str">
-        <f t="shared" ref="D46:E47" si="14">C46</f>
+      <c r="E46" t="str">
+        <f t="shared" ref="E46:F47" si="17">D46</f>
         <v>Reloop Beatpad 2</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" si="14"/>
+      <c r="F46" t="str">
+        <f t="shared" si="17"/>
         <v>Reloop Beatpad 2</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G46" s="5" t="str">
-        <f>F47</f>
+      <c r="G46" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f>G47</f>
         <v>S2 MK2</v>
       </c>
-      <c r="H46" t="s">
-        <v>162</v>
-      </c>
-      <c r="I46" s="5"/>
+      <c r="I46" t="s">
+        <v>161</v>
+      </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#3</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="14"/>
+      <c r="D47" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="17"/>
         <v>DDJ-WEGO4</v>
       </c>
-      <c r="E47" t="str">
-        <f t="shared" si="14"/>
+      <c r="F47" t="str">
+        <f t="shared" si="17"/>
         <v>DDJ-WEGO4</v>
       </c>
-      <c r="F47" t="s">
-        <v>97</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H47" t="str">
-        <f>G46</f>
+      <c r="G47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" t="str">
+        <f>H46</f>
         <v>S2 MK2</v>
       </c>
-      <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
+      <c r="B48" s="4"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="5" t="str">
-        <f>F46</f>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5" t="str">
+        <f>G46</f>
         <v>DDJ-WEGO3</v>
       </c>
-      <c r="H48" t="s">
-        <v>163</v>
-      </c>
-      <c r="I48" s="5"/>
+      <c r="I48" t="s">
+        <v>162</v>
+      </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="5" t="str">
-        <f>G47</f>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5" t="str">
+        <f>H47</f>
         <v>Numark IDJ Pro</v>
       </c>
-      <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -1980,51 +2127,51 @@
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
-    </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N50" s="7"/>
+    </row>
+    <row r="53" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="1">
-        <f>B30</f>
-        <v>2020</v>
-      </c>
       <c r="C53" s="1">
         <f>C30</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D53" s="1">
         <f>D30</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E53" s="1">
         <f>E30</f>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F53" s="1">
         <f>F30</f>
+        <v>2017</v>
+      </c>
+      <c r="G53" s="1">
+        <f>G30</f>
         <v>2016</v>
       </c>
-      <c r="G53" s="1">
-        <f t="shared" ref="G53:H53" si="15">G30</f>
+      <c r="H53" s="1">
+        <f t="shared" ref="H53:I53" si="18">H30</f>
         <v>2015</v>
       </c>
-      <c r="H53" s="1">
-        <f t="shared" si="15"/>
+      <c r="I53" s="1">
+        <f t="shared" si="18"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
         <f>A31</f>
         <v>#1</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" t="s">
         <v>28</v>
-      </c>
-      <c r="C54" t="str">
-        <f>B54</f>
-        <v>DJAY PRO 2</v>
       </c>
       <c r="D54" t="str">
         <f>C54</f>
@@ -2034,387 +2181,418 @@
         <f>D54</f>
         <v>DJAY PRO 2</v>
       </c>
-      <c r="F54" t="s">
-        <v>123</v>
-      </c>
-      <c r="G54" t="str">
-        <f>F54</f>
-        <v>DJAY PRO 1</v>
+      <c r="F54" t="str">
+        <f>E54</f>
+        <v>DJAY PRO 2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>122</v>
       </c>
       <c r="H54" t="str">
         <f>G54</f>
         <v>DJAY PRO 1</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I54" t="str">
+        <f>H54</f>
+        <v>DJAY PRO 1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="str">
         <f>A32</f>
         <v>#2</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" t="s">
         <v>29</v>
       </c>
-      <c r="C55" t="str">
-        <f>B55</f>
+      <c r="D55" t="str">
+        <f>C55</f>
         <v>MIXXX</v>
       </c>
-      <c r="D55" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" t="str">
-        <f>D55</f>
+      <c r="E55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" t="str">
+        <f>E55</f>
         <v>MIK Flow 8</v>
       </c>
-      <c r="F55" t="s">
-        <v>124</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" ref="G55:H56" si="16">F55</f>
+      <c r="G55" t="s">
+        <v>123</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" ref="H55:I56" si="19">G55</f>
         <v>Mixvibes Cross</v>
       </c>
-      <c r="H55" t="str">
-        <f t="shared" si="16"/>
+      <c r="I55" t="str">
+        <f t="shared" si="19"/>
         <v>Mixvibes Cross</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="str">
         <f>A33</f>
         <v>#3</v>
       </c>
-      <c r="F56" t="str">
-        <f>E55</f>
+      <c r="G56" t="str">
+        <f>F55</f>
         <v>MIK Flow 8</v>
       </c>
-      <c r="G56" t="str">
-        <f t="shared" si="16"/>
+      <c r="H56" t="str">
+        <f t="shared" si="19"/>
         <v>MIK Flow 8</v>
       </c>
-      <c r="H56" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G57" t="s">
-        <v>143</v>
-      </c>
-      <c r="H57" t="str">
-        <f>G56</f>
+      <c r="I56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>142</v>
+      </c>
+      <c r="I57" t="str">
+        <f>H56</f>
         <v>MIK Flow 8</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H58" t="str">
-        <f>G57</f>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I58" t="str">
+        <f>H57</f>
         <v>The One</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="1">
-        <f>B30</f>
-        <v>2020</v>
-      </c>
       <c r="C60" s="1">
         <f>C30</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D60" s="1">
         <f>D30</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E60" s="1">
         <f>E30</f>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F60" s="1">
         <f>F30</f>
+        <v>2017</v>
+      </c>
+      <c r="G60" s="1">
+        <f>G30</f>
         <v>2016</v>
       </c>
-      <c r="G60" s="1">
-        <f t="shared" ref="G60:H60" si="17">G30</f>
+      <c r="H60" s="1">
+        <f t="shared" ref="H60:I60" si="20">H30</f>
         <v>2015</v>
       </c>
-      <c r="H60" s="1">
-        <f t="shared" si="17"/>
+      <c r="I60" s="1">
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="str">
         <f>A31</f>
         <v>#1</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="str">
+        <f>C61</f>
+        <v>MacBook Pro 16</v>
+      </c>
+      <c r="C61" t="s">
         <v>31</v>
       </c>
-      <c r="C61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="str">
         <f>A32</f>
         <v>#2</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="str">
+        <f>C62</f>
+        <v>Dell XPS</v>
+      </c>
+      <c r="C62" t="s">
         <v>32</v>
       </c>
-      <c r="C62" t="str">
-        <f>B62</f>
+      <c r="D62" t="str">
+        <f>C62</f>
         <v>Dell XPS</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="str">
         <f>A33</f>
         <v>#3</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" t="s">
         <v>33</v>
       </c>
-      <c r="C63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="str">
         <f>A34</f>
         <v>#4</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>34</v>
       </c>
-      <c r="C64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="str">
         <f>A35</f>
         <v>#5</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>35</v>
       </c>
-      <c r="C65" t="str">
-        <f>B65</f>
+      <c r="D65" t="str">
+        <f>C65</f>
         <v>MacBook Air</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B67" s="1">
-        <f>B60</f>
+      <c r="C67" s="1">
+        <f>C60</f>
         <v>2020</v>
       </c>
-      <c r="C67" s="1">
-        <f t="shared" ref="C67:H67" si="18">C60</f>
+      <c r="D67" s="1">
+        <f t="shared" ref="D67:I67" si="21">D60</f>
         <v>2019</v>
       </c>
-      <c r="D67" s="1">
-        <f t="shared" si="18"/>
+      <c r="E67" s="1">
+        <f t="shared" si="21"/>
         <v>2018</v>
       </c>
-      <c r="E67" s="1">
-        <f t="shared" si="18"/>
+      <c r="F67" s="1">
+        <f t="shared" si="21"/>
         <v>2017</v>
       </c>
-      <c r="F67" s="1">
-        <f t="shared" si="18"/>
+      <c r="G67" s="1">
+        <f t="shared" si="21"/>
         <v>2016</v>
       </c>
-      <c r="G67" s="1">
-        <f t="shared" si="18"/>
+      <c r="H67" s="1">
+        <f t="shared" si="21"/>
         <v>2015</v>
       </c>
-      <c r="H67" s="1">
-        <f t="shared" si="18"/>
+      <c r="I67" s="1">
+        <f t="shared" si="21"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="str">
         <f>A61</f>
         <v>#1</v>
       </c>
-      <c r="B68" t="str">
-        <f>B4</f>
+      <c r="B68" s="2" t="str">
+        <f>C68</f>
         <v>Denon Prime 4</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D68" t="str">
-        <f>C68</f>
+      <c r="C68" t="str">
+        <f>C4</f>
+        <v>Denon Prime 4</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" t="str">
+        <f>D68</f>
         <v>XDJ-RX2</v>
       </c>
-      <c r="E68" t="str">
-        <f>D69</f>
+      <c r="F68" t="str">
+        <f>E69</f>
         <v>MCX-8000</v>
       </c>
-      <c r="F68" t="s">
-        <v>132</v>
-      </c>
-      <c r="G68" t="str">
-        <f>F69</f>
+      <c r="G68" t="s">
+        <v>131</v>
+      </c>
+      <c r="H68" t="str">
+        <f>G69</f>
         <v>Mixdeck Quad</v>
       </c>
-      <c r="H68" t="str">
-        <f>G68</f>
+      <c r="I68" t="str">
+        <f>H68</f>
         <v>Mixdeck Quad</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
-        <f t="shared" ref="A69:A72" si="19">A62</f>
+        <f t="shared" ref="A69:A72" si="22">A62</f>
         <v>#2</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="str">
+        <f>C69</f>
+        <v>XDJ-XZ</v>
+      </c>
+      <c r="C69" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69" t="str">
+        <f>D70</f>
+        <v>MCX-8000</v>
+      </c>
+      <c r="F69" t="s">
+        <v>114</v>
+      </c>
+      <c r="G69" t="str">
+        <f>F70</f>
+        <v>Mixdeck Quad</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" ref="H69" si="23">G70</f>
+        <v>XDJ-R1</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" ref="I69:I72" si="24">H69</f>
+        <v>XDJ-R1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>#3</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" t="s">
         <v>38</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D69" t="str">
-        <f>C70</f>
-        <v>MCX-8000</v>
-      </c>
-      <c r="E69" t="s">
-        <v>115</v>
-      </c>
-      <c r="F69" t="str">
+      <c r="E70" t="s">
+        <v>106</v>
+      </c>
+      <c r="F70" t="str">
         <f>E70</f>
         <v>Mixdeck Quad</v>
       </c>
-      <c r="G69" t="str">
-        <f t="shared" ref="G69" si="20">F70</f>
-        <v>XDJ-R1</v>
-      </c>
-      <c r="H69" t="str">
-        <f t="shared" ref="H69:H72" si="21">G69</f>
-        <v>XDJ-R1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>#3</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="G70" t="s">
+        <v>132</v>
+      </c>
+      <c r="H70" t="s">
+        <v>146</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="24"/>
+        <v>Gemini CDMP-7000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>#4</v>
+      </c>
+      <c r="H71" t="s">
+        <v>147</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="24"/>
+        <v>Mixdeck express</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>#5</v>
+      </c>
+      <c r="H72" t="s">
+        <v>148</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="24"/>
+        <v>XDJ-Aero</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D70" t="s">
-        <v>107</v>
-      </c>
-      <c r="E70" t="str">
-        <f>D70</f>
-        <v>Mixdeck Quad</v>
-      </c>
-      <c r="F70" t="s">
-        <v>133</v>
-      </c>
-      <c r="G70" t="s">
-        <v>147</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="21"/>
-        <v>Gemini CDMP-7000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>#4</v>
-      </c>
-      <c r="G71" t="s">
-        <v>148</v>
-      </c>
-      <c r="H71" t="str">
-        <f t="shared" si="21"/>
-        <v>Mixdeck express</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>#5</v>
-      </c>
-      <c r="G72" t="s">
-        <v>149</v>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="21"/>
-        <v>XDJ-Aero</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="1">
-        <f>B67</f>
+      <c r="C74" s="1">
+        <f>C67</f>
         <v>2020</v>
       </c>
-      <c r="C74" s="1">
-        <f t="shared" ref="C74:F74" si="22">C67</f>
+      <c r="D74" s="1">
+        <f t="shared" ref="D74:G74" si="25">D67</f>
         <v>2019</v>
       </c>
-      <c r="D74" s="1">
-        <f t="shared" si="22"/>
+      <c r="E74" s="1">
+        <f t="shared" si="25"/>
         <v>2018</v>
       </c>
-      <c r="E74" s="1">
-        <f t="shared" si="22"/>
+      <c r="F74" s="1">
+        <f t="shared" si="25"/>
         <v>2017</v>
       </c>
-      <c r="F74" s="1">
-        <f t="shared" si="22"/>
+      <c r="G74" s="1">
+        <f t="shared" si="25"/>
         <v>2016</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
         <f>A68</f>
         <v>#1</v>
       </c>
-      <c r="B75" t="s">
-        <v>41</v>
-      </c>
-      <c r="C75" t="str">
-        <f>B75</f>
-        <v>SC5000 Prime</v>
+      <c r="B75" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" t="s">
+        <v>40</v>
       </c>
       <c r="D75" t="str">
         <f>C75</f>
         <v>SC5000 Prime</v>
       </c>
       <c r="E75" t="str">
-        <f>D79</f>
+        <f>D75</f>
+        <v>SC5000 Prime</v>
+      </c>
+      <c r="F75" t="str">
+        <f>E79</f>
         <v>XDJ-1000MK2</v>
       </c>
-      <c r="F75" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
-        <f t="shared" ref="A76:A79" si="23">A69</f>
+        <f t="shared" ref="A76:A79" si="26">A69</f>
         <v>#2</v>
       </c>
-      <c r="B76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C76" t="str">
-        <f>B76</f>
-        <v>CDJ-2000NX2</v>
+      <c r="B76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" t="s">
+        <v>41</v>
       </c>
       <c r="D76" t="str">
         <f>C76</f>
@@ -2425,45 +2603,48 @@
         <v>CDJ-2000NX2</v>
       </c>
       <c r="F76" t="str">
+        <f>E76</f>
+        <v>CDJ-2000NX2</v>
+      </c>
+      <c r="G76" t="str">
+        <f>F77</f>
+        <v>Numark NDX500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>#3</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" t="str">
+        <f>C77</f>
+        <v>SC5000M Prime</v>
+      </c>
+      <c r="E77" t="s">
+        <v>101</v>
+      </c>
+      <c r="F77" t="str">
         <f>E77</f>
         <v>Numark NDX500</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>#3</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="G77" t="str">
+        <f>F78</f>
+        <v>XDJ-700</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>#4</v>
+      </c>
+      <c r="C78" t="s">
         <v>43</v>
-      </c>
-      <c r="C77" t="str">
-        <f>B77</f>
-        <v>SC5000M Prime</v>
-      </c>
-      <c r="D77" t="s">
-        <v>102</v>
-      </c>
-      <c r="E77" t="str">
-        <f>D77</f>
-        <v>Numark NDX500</v>
-      </c>
-      <c r="F77" t="str">
-        <f>E78</f>
-        <v>XDJ-700</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>#4</v>
-      </c>
-      <c r="B78" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" t="str">
-        <f>B78</f>
-        <v>XDJ-700</v>
       </c>
       <c r="D78" t="str">
         <f>C78</f>
@@ -2474,69 +2655,73 @@
         <v>XDJ-700</v>
       </c>
       <c r="F78" t="str">
-        <f>E79</f>
+        <f>E78</f>
+        <v>XDJ-700</v>
+      </c>
+      <c r="G78" t="str">
+        <f>F79</f>
         <v>Reloop RMP-4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#5</v>
       </c>
-      <c r="B79" t="s">
-        <v>45</v>
-      </c>
-      <c r="C79" t="str">
-        <f>B79</f>
-        <v>XDJ-1000MK2</v>
+      <c r="C79" t="s">
+        <v>44</v>
       </c>
       <c r="D79" t="str">
         <f>C79</f>
         <v>XDJ-1000MK2</v>
       </c>
-      <c r="E79" t="s">
-        <v>109</v>
+      <c r="E79" t="str">
+        <f>D79</f>
+        <v>XDJ-1000MK2</v>
       </c>
       <c r="F79" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="G79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B81" s="1">
-        <f>B74</f>
+        <v>45</v>
+      </c>
+      <c r="C81" s="1">
+        <f>C74</f>
         <v>2020</v>
       </c>
-      <c r="C81" s="1">
-        <f t="shared" ref="C81:F81" si="24">C74</f>
+      <c r="D81" s="1">
+        <f t="shared" ref="D81:G81" si="27">D74</f>
         <v>2019</v>
       </c>
-      <c r="D81" s="1">
-        <f t="shared" si="24"/>
+      <c r="E81" s="1">
+        <f t="shared" si="27"/>
         <v>2018</v>
       </c>
-      <c r="E81" s="1">
-        <f t="shared" si="24"/>
+      <c r="F81" s="1">
+        <f t="shared" si="27"/>
         <v>2017</v>
       </c>
-      <c r="F81" s="1">
-        <f t="shared" si="24"/>
+      <c r="G81" s="1">
+        <f t="shared" si="27"/>
         <v>2016</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="str">
         <f>A75</f>
         <v>#1</v>
       </c>
-      <c r="B82" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" t="str">
-        <f>B82</f>
+      <c r="B82" s="2" t="str">
+        <f>C82</f>
         <v>DJM-900NXS2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>46</v>
       </c>
       <c r="D82" t="str">
         <f>C82</f>
@@ -2546,141 +2731,154 @@
         <f>D82</f>
         <v>DJM-900NXS2</v>
       </c>
-      <c r="F82" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F82" t="str">
+        <f>E82</f>
+        <v>DJM-900NXS2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
-        <f t="shared" ref="A83:A86" si="25">A76</f>
+        <f t="shared" ref="A83:A86" si="28">A76</f>
         <v>#2</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" ref="D83:D84" si="29">C83</f>
+        <v>X1800 PRIME</v>
+      </c>
+      <c r="E83" t="str">
+        <f>D83</f>
+        <v>X1800 PRIME</v>
+      </c>
+      <c r="F83" t="s">
+        <v>109</v>
+      </c>
+      <c r="G83" t="str">
+        <f>F83</f>
+        <v>Allen Heath XONE:43C</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>#3</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" t="s">
         <v>48</v>
       </c>
-      <c r="C83" t="str">
-        <f t="shared" ref="C83:C84" si="26">B83</f>
-        <v>X1800 PRIME</v>
-      </c>
-      <c r="D83" t="str">
-        <f>C83</f>
-        <v>X1800 PRIME</v>
-      </c>
-      <c r="E83" t="s">
-        <v>110</v>
-      </c>
-      <c r="F83" t="str">
-        <f>E83</f>
-        <v>Allen Heath XONE:43C</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="str">
-        <f t="shared" si="25"/>
-        <v>#3</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="D84" t="str">
+        <f t="shared" si="29"/>
+        <v>Rane 72</v>
+      </c>
+      <c r="E84" t="s">
+        <v>102</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" ref="F84:G86" si="30">E84</f>
+        <v>Reloop RMX-22I</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="30"/>
+        <v>Reloop RMX-22I</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>#4</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" t="s">
         <v>49</v>
       </c>
-      <c r="C84" t="str">
-        <f t="shared" si="26"/>
-        <v>Rane 72</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="D85" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" t="str">
+        <f>D85</f>
+        <v>Pioneer S9</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="30"/>
+        <v>Pioneer S9</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="30"/>
+        <v>Pioneer S9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>#5</v>
+      </c>
+      <c r="B86" s="2" t="str">
+        <f>C86</f>
+        <v>Numark Scratch</v>
+      </c>
+      <c r="C86" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" t="s">
         <v>103</v>
       </c>
-      <c r="E84" t="str">
-        <f t="shared" ref="E84:F86" si="27">D84</f>
-        <v>Reloop RMX-22I</v>
-      </c>
-      <c r="F84" t="str">
-        <f t="shared" si="27"/>
-        <v>Reloop RMX-22I</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="str">
-        <f t="shared" si="25"/>
-        <v>#4</v>
-      </c>
-      <c r="B85" t="s">
-        <v>50</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D85" t="str">
-        <f>C85</f>
-        <v>Pioneer S9</v>
-      </c>
-      <c r="E85" t="str">
-        <f t="shared" si="27"/>
-        <v>Pioneer S9</v>
-      </c>
-      <c r="F85" t="str">
-        <f t="shared" si="27"/>
-        <v>Pioneer S9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="str">
-        <f t="shared" si="25"/>
-        <v>#5</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="F86" t="str">
+        <f t="shared" si="30"/>
+        <v>Kontrol Z2</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="30"/>
+        <v>Kontrol Z2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D86" t="s">
-        <v>104</v>
-      </c>
-      <c r="E86" t="str">
-        <f t="shared" si="27"/>
-        <v>Kontrol Z2</v>
-      </c>
-      <c r="F86" t="str">
-        <f t="shared" si="27"/>
-        <v>Kontrol Z2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B88" s="1">
-        <f>B81</f>
+      <c r="C88" s="1">
+        <f>C81</f>
         <v>2020</v>
       </c>
-      <c r="C88" s="1">
-        <f t="shared" ref="C88:F88" si="28">C81</f>
+      <c r="D88" s="1">
+        <f t="shared" ref="D88:G88" si="31">D81</f>
         <v>2019</v>
       </c>
-      <c r="D88" s="1">
-        <f t="shared" si="28"/>
+      <c r="E88" s="1">
+        <f t="shared" si="31"/>
         <v>2018</v>
       </c>
-      <c r="E88" s="1">
-        <f t="shared" si="28"/>
+      <c r="F88" s="1">
+        <f t="shared" si="31"/>
         <v>2017</v>
       </c>
-      <c r="F88" s="1">
-        <f t="shared" si="28"/>
+      <c r="G88" s="1">
+        <f t="shared" si="31"/>
         <v>2016</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="str">
         <f>A82</f>
         <v>#1</v>
       </c>
-      <c r="B89" t="s">
-        <v>53</v>
-      </c>
-      <c r="C89" t="str">
-        <f>B89</f>
-        <v>Push 2</v>
+      <c r="C89" t="s">
+        <v>52</v>
       </c>
       <c r="D89" t="str">
         <f>C89</f>
@@ -2690,176 +2888,201 @@
         <f>D89</f>
         <v>Push 2</v>
       </c>
-      <c r="F89" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="str">
-        <f t="shared" ref="A90:A93" si="29">A83</f>
-        <v>#2</v>
-      </c>
-      <c r="B90" t="s">
-        <v>54</v>
-      </c>
-      <c r="C90" t="str">
-        <f t="shared" ref="C90:D92" si="30">B90</f>
-        <v>Maschine MK3</v>
-      </c>
-      <c r="D90" t="str">
-        <f t="shared" si="30"/>
-        <v>Maschine MK3</v>
-      </c>
-      <c r="E90" t="s">
-        <v>111</v>
-      </c>
-      <c r="F90" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>#3</v>
-      </c>
-      <c r="B91" t="s">
-        <v>55</v>
-      </c>
-      <c r="C91" t="s">
-        <v>86</v>
-      </c>
-      <c r="D91" t="str">
-        <f t="shared" ref="D91" si="31">C91</f>
-        <v>Audio Apollo Twin Mk2</v>
-      </c>
-      <c r="E91" t="str">
-        <f>D91</f>
-        <v>Audio Apollo Twin Mk2</v>
-      </c>
-      <c r="F91" t="str">
+      <c r="F89" t="str">
         <f>E89</f>
         <v>Push 2</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="str">
+        <f t="shared" ref="A90:A93" si="32">A83</f>
+        <v>#2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" ref="D90:E92" si="33">C90</f>
+        <v>Maschine MK3</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="33"/>
+        <v>Maschine MK3</v>
+      </c>
+      <c r="F90" t="s">
+        <v>110</v>
+      </c>
+      <c r="G90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="str">
+        <f t="shared" si="32"/>
+        <v>#3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" t="s">
+        <v>85</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" ref="E91" si="34">D91</f>
+        <v>Audio Apollo Twin Mk2</v>
+      </c>
+      <c r="F91" t="str">
+        <f>E91</f>
+        <v>Audio Apollo Twin Mk2</v>
+      </c>
+      <c r="G91" t="str">
+        <f>F89</f>
+        <v>Push 2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>#4</v>
       </c>
-      <c r="B92" t="s">
-        <v>85</v>
-      </c>
-      <c r="C92" t="str">
-        <f t="shared" si="30"/>
+      <c r="C92" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="33"/>
         <v>Komplete 12</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
+        <v>104</v>
+      </c>
+      <c r="F92" t="str">
+        <f>E92</f>
+        <v>Minilab MK2</v>
+      </c>
+      <c r="G92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="str">
+        <f t="shared" si="32"/>
+        <v>#5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93" t="s">
+        <v>83</v>
+      </c>
+      <c r="E93" t="s">
         <v>105</v>
       </c>
-      <c r="E92" t="str">
-        <f>D92</f>
-        <v>Minilab MK2</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="F93" t="s">
+        <v>111</v>
+      </c>
+      <c r="G93" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>#5</v>
-      </c>
-      <c r="B93" t="s">
-        <v>56</v>
-      </c>
-      <c r="C93" t="s">
-        <v>84</v>
-      </c>
-      <c r="D93" t="s">
-        <v>106</v>
-      </c>
-      <c r="E93" t="s">
-        <v>112</v>
-      </c>
-      <c r="F93" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B96" s="1">
-        <f>B44</f>
-        <v>2020</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B96" s="1"/>
       <c r="C96" s="1">
         <f>C44</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D96" s="1">
         <f>D44</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E96" s="1">
         <f>E44</f>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F96" s="1">
         <f>F44</f>
+        <v>2017</v>
+      </c>
+      <c r="G96" s="1">
+        <f>G44</f>
         <v>2016</v>
       </c>
-      <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="str">
         <f>A38</f>
         <v>#1</v>
       </c>
-      <c r="B97" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="str">
+        <f>C97</f>
+        <v>Audio Technica 1240XP</v>
+      </c>
+      <c r="C97" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="str">
         <f>A39</f>
         <v>#2</v>
       </c>
-      <c r="B98" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="str">
+        <f t="shared" ref="B98:B101" si="35">C98</f>
+        <v>Numark NTX1000</v>
+      </c>
+      <c r="C98" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="str">
         <f>A40</f>
         <v>#3</v>
       </c>
-      <c r="B99" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>Reloop RP-8000MK2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="str">
         <f>A41</f>
         <v>#4</v>
       </c>
-      <c r="B100" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>Stanton T.92 MK2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="str">
         <f>A42</f>
         <v>#5</v>
       </c>
-      <c r="B101" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B101" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>Technics SL1200</v>
+      </c>
+      <c r="C101" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
